--- a/data/cns_capability.xlsx
+++ b/data/cns_capability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482D58CA-2C33-4769-8A72-2F6875806F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A278BB7D-F256-46BB-889C-008E5FDF6EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="114">
   <si>
     <t>A – GBAS landing system</t>
   </si>
@@ -390,18 +390,12 @@
     <t>B737-800</t>
   </si>
   <si>
-    <t>DH8D</t>
-  </si>
-  <si>
     <t>B777-300ER</t>
   </si>
   <si>
     <t>CRJ9</t>
   </si>
   <si>
-    <t>A330-200</t>
-  </si>
-  <si>
     <t>ATR72-600</t>
   </si>
   <si>
@@ -409,6 +403,21 @@
   </si>
   <si>
     <t>E170</t>
+  </si>
+  <si>
+    <t>Palma de Mallorca</t>
+  </si>
+  <si>
+    <t>A321 NEO</t>
+  </si>
+  <si>
+    <t>B737 Max</t>
+  </si>
+  <si>
+    <t>B787 Dreamliner</t>
+  </si>
+  <si>
+    <t>ATR72-500</t>
   </si>
 </sst>
 </file>
@@ -457,8 +466,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -831,7 +841,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,10 +867,10 @@
         <v>66</v>
       </c>
       <c r="B2">
-        <v>4785926</v>
+        <v>4841403</v>
       </c>
       <c r="C2">
-        <v>0.43099999999999999</v>
+        <v>0.52300000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -868,10 +878,10 @@
         <v>67</v>
       </c>
       <c r="B3">
-        <v>2541601</v>
+        <v>1437964</v>
       </c>
       <c r="C3">
-        <v>0.22900000000000001</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -879,10 +889,10 @@
         <v>68</v>
       </c>
       <c r="B4">
-        <v>238086</v>
+        <v>274513</v>
       </c>
       <c r="C4">
-        <v>2.1000000000000001E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -890,10 +900,10 @@
         <v>69</v>
       </c>
       <c r="B5">
-        <v>3446300</v>
+        <v>2645524</v>
       </c>
       <c r="C5">
-        <v>0.31</v>
+        <v>0.28599999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -901,7 +911,7 @@
         <v>70</v>
       </c>
       <c r="B6">
-        <v>3493</v>
+        <v>2729</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -912,7 +922,7 @@
         <v>71</v>
       </c>
       <c r="B7">
-        <v>684</v>
+        <v>975</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -923,7 +933,7 @@
         <v>72</v>
       </c>
       <c r="B8">
-        <v>2148</v>
+        <v>3512</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -934,10 +944,10 @@
         <v>73</v>
       </c>
       <c r="B9">
-        <v>210661</v>
+        <v>122008</v>
       </c>
       <c r="C9">
-        <v>1.9E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -945,21 +955,21 @@
         <v>74</v>
       </c>
       <c r="B10">
-        <v>67066</v>
+        <v>88646</v>
       </c>
       <c r="C10">
-        <v>6.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B11">
-        <v>6069685</v>
+        <v>7409392</v>
       </c>
       <c r="C11">
-        <v>0.54700000000000004</v>
+        <v>0.80100000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -967,10 +977,10 @@
         <v>76</v>
       </c>
       <c r="B12">
-        <v>296965</v>
+        <v>329079</v>
       </c>
       <c r="C12">
-        <v>2.7E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -978,10 +988,10 @@
         <v>77</v>
       </c>
       <c r="B13">
-        <v>126493</v>
+        <v>44076</v>
       </c>
       <c r="C13">
-        <v>1.0999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -989,10 +999,10 @@
         <v>78</v>
       </c>
       <c r="B14">
-        <v>17601</v>
+        <v>9195</v>
       </c>
       <c r="C14">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1000,10 +1010,10 @@
         <v>79</v>
       </c>
       <c r="B15">
-        <v>30667</v>
+        <v>64899</v>
       </c>
       <c r="C15">
-        <v>3.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1011,10 +1021,10 @@
         <v>80</v>
       </c>
       <c r="B16">
-        <v>19420</v>
+        <v>6092</v>
       </c>
       <c r="C16">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1030,7 +1040,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,34 +1082,34 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B2">
-        <v>0.34</v>
+        <v>0.877</v>
       </c>
       <c r="C2">
-        <v>0.54</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="D2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E2">
-        <v>0.11</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>6.0000000000000001E-3</v>
-      </c>
       <c r="J2">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1107,16 +1117,16 @@
         <v>91</v>
       </c>
       <c r="B3">
-        <v>0.69</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="C3">
-        <v>0.22</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D3">
-        <v>2E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E3">
-        <v>0.09</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1128,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="J3">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1139,16 +1149,16 @@
         <v>92</v>
       </c>
       <c r="B4">
-        <v>0.42</v>
+        <v>0.53</v>
       </c>
       <c r="C4">
-        <v>0.48</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="D4">
-        <v>6.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E4">
-        <v>0.09</v>
+        <v>3.9E-2</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1160,27 +1170,27 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>5.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="J4">
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B5">
-        <v>0.57999999999999996</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="C5">
-        <v>0.12</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="D5">
         <v>1.4E-2</v>
       </c>
       <c r="E5">
-        <v>0.28999999999999998</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1192,27 +1202,27 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>8.9999999999999993E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J5">
-        <v>0.02</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6">
-        <v>0.28999999999999998</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="C6">
-        <v>0.22</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="D6">
-        <v>3.3000000000000002E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E6">
-        <v>0.46</v>
+        <v>0.315</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1224,27 +1234,27 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>8.0000000000000002E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7">
-        <v>0.28999999999999998</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="C7">
-        <v>0.56999999999999995</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="D7">
-        <v>3.7999999999999999E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="E7">
-        <v>0.1</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1256,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>8.9999999999999993E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="J7">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1267,16 +1277,16 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.28000000000000003</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="C8">
-        <v>0.1</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D8">
-        <v>1.2E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E8">
-        <v>0.61</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1288,27 +1298,27 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9">
-        <v>0.81</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="C9">
-        <v>0.11</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="D9">
-        <v>7.0000000000000001E-3</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E9">
-        <v>7.0000000000000007E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1320,42 +1330,42 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="B10">
-        <v>0.67</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="C10">
-        <v>0.11</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="D10">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.317</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>2E-3</v>
+      </c>
+      <c r="J10">
         <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="E10">
-        <v>0.21</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J10">
-        <v>2E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1363,16 +1373,16 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="C11">
-        <v>0.04</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="D11">
-        <v>7.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E11">
-        <v>0.25</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1384,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1400,7 +1410,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G11"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,22 +1443,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B2">
-        <v>0.71499999999999997</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="C2">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="D2">
-        <v>6.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1459,22 +1469,22 @@
         <v>91</v>
       </c>
       <c r="B3">
-        <v>0.82</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="C3">
-        <v>0.01</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D3">
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G3">
         <v>1E-3</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1482,42 +1492,42 @@
         <v>92</v>
       </c>
       <c r="B4">
-        <v>0.42499999999999999</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="C4">
-        <v>2.3E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D4">
-        <v>8.9999999999999993E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G4">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B5">
-        <v>0.628</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="C5">
-        <v>5.7000000000000002E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="D5">
-        <v>6.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1525,22 +1535,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6">
-        <v>0.50900000000000001</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="C6">
-        <v>3.1E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="D6">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>6.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1548,22 +1558,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7">
-        <v>0.55000000000000004</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="C7">
-        <v>3.9E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1E-3</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1574,42 +1584,42 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.56200000000000006</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="C8">
-        <v>2.1000000000000001E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D8">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="G8">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9">
-        <v>0.79</v>
+        <v>0.872</v>
       </c>
       <c r="C9">
         <v>2.3E-2</v>
       </c>
       <c r="D9">
-        <v>8.0000000000000002E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1617,25 +1627,25 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="B10">
-        <v>0.77200000000000002</v>
+        <v>0.81</v>
       </c>
       <c r="C10">
-        <v>1.6E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="D10">
-        <v>1.2E-2</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G10">
         <v>1E-3</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1643,19 +1653,19 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.73399999999999999</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="C11">
-        <v>2.5000000000000001E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D11">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1671,7 +1681,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1719,13 +1729,13 @@
         <v>0.46899999999999997</v>
       </c>
       <c r="C2">
-        <v>5.7000000000000002E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="D2">
-        <v>7.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E2">
-        <v>0.46800000000000003</v>
+        <v>0.49</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1734,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1748,31 +1758,31 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>0.46100000000000002</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="C3">
-        <v>0.26200000000000001</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="D3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E3">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="E3">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1.4E-2</v>
-      </c>
-      <c r="J3">
-        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1780,16 +1790,16 @@
         <v>27</v>
       </c>
       <c r="B4">
-        <v>0.53300000000000003</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="C4">
-        <v>0.28399999999999997</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="D4">
-        <v>9.0999999999999998E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="E4">
-        <v>8.6999999999999994E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1804,24 +1814,24 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J4">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B5">
-        <v>0.495</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="C5">
-        <v>0.28399999999999997</v>
+        <v>0.121</v>
       </c>
       <c r="D5">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.218</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1833,27 +1843,27 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="B6">
-        <v>6.4000000000000001E-2</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="C6">
-        <v>0.75</v>
+        <v>0.253</v>
       </c>
       <c r="D6">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.185</v>
+        <v>0.106</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1873,19 +1883,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="B7">
-        <v>0.31</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="C7">
-        <v>0.41899999999999998</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="D7">
-        <v>6.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E7">
-        <v>0.25800000000000001</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1897,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1905,19 +1915,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="B8">
-        <v>0.624</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="C8">
-        <v>0.159</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="D8">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E8">
-        <v>0.216</v>
+        <v>0.53</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1932,24 +1942,24 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.17799999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B9">
-        <v>0.81799999999999995</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="C9">
-        <v>5.7000000000000002E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E9">
-        <v>0.124</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1969,19 +1979,19 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="C10">
-        <v>0.88700000000000001</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="D10">
-        <v>1.4E-2</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>9.9000000000000005E-2</v>
+        <v>0.246</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2001,19 +2011,19 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="B11">
-        <v>0.58399999999999996</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="C11">
-        <v>0.32400000000000001</v>
+        <v>2.4E-2</v>
       </c>
       <c r="D11">
-        <v>3.5000000000000003E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E11">
-        <v>5.6000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2033,19 +2043,19 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B12">
-        <v>0.71</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="C12">
-        <v>0.115</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D12">
-        <v>6.5000000000000002E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E12">
-        <v>0.109</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2065,19 +2075,19 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13">
-        <v>0.17699999999999999</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="C13">
-        <v>9.6000000000000002E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="D13">
-        <v>0.254</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="E13">
-        <v>0.47099999999999997</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2097,19 +2107,19 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B14">
-        <v>0.81499999999999995</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="C14">
-        <v>0.125</v>
+        <v>0.16</v>
       </c>
       <c r="D14">
-        <v>7.0000000000000001E-3</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="E14">
-        <v>5.2999999999999999E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2129,19 +2139,19 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B15">
-        <v>0.84499999999999997</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>5.0999999999999997E-2</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="D15">
-        <v>3.4000000000000002E-2</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="E15">
-        <v>6.9000000000000006E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2161,19 +2171,19 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B16">
-        <v>0.48899999999999999</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="C16">
-        <v>0.41899999999999998</v>
+        <v>2.3E-2</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.2000000000000003E-2</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2201,7 +2211,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2237,22 +2247,22 @@
         <v>103</v>
       </c>
       <c r="B2">
-        <v>0.86599999999999999</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="C2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D2">
-        <v>1.2999999999999999E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="E2">
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2E-3</v>
       </c>
       <c r="G2">
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2260,22 +2270,22 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>0.498</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="C3">
-        <v>1.4E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D3">
-        <v>2.5999999999999999E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>7.0000000000000001E-3</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2283,10 +2293,10 @@
         <v>27</v>
       </c>
       <c r="B4">
-        <v>0.47</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="C4">
-        <v>9.0999999999999998E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2303,16 +2313,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B5">
-        <v>0.58699999999999997</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="C5">
-        <v>2E-3</v>
+        <v>2.7E-2</v>
       </c>
       <c r="D5">
-        <v>4.2999999999999997E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2326,22 +2336,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="B6">
-        <v>6.6000000000000003E-2</v>
+        <v>0.91</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -2349,22 +2359,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="B7">
-        <v>0.54900000000000004</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2372,22 +2382,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="B8">
-        <v>0.93600000000000005</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="C8">
-        <v>8.9999999999999993E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2395,13 +2405,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B9">
-        <v>0.94199999999999995</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="C9">
-        <v>2.3E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2418,13 +2428,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2441,10 +2451,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="B11">
-        <v>0.55900000000000005</v>
+        <v>0.996</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2464,22 +2474,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B12">
-        <v>0.79300000000000004</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="C12">
-        <v>2.5000000000000001E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1E-3</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2487,13 +2497,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13">
-        <v>0.36</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2510,10 +2520,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B14">
-        <v>0.75700000000000001</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2522,24 +2532,24 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1.9E-2</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B15">
-        <v>0.79700000000000004</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="C15">
-        <v>0.11899999999999999</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2556,10 +2566,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B16">
-        <v>0.48899999999999999</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="C16">
         <v>0</v>

--- a/data/cns_capability.xlsx
+++ b/data/cns_capability.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A278BB7D-F256-46BB-889C-008E5FDF6EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888F7C5A-1311-4B74-9E08-DC6DAFBCDF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nav_total" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="137">
   <si>
     <t>A – GBAS landing system</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Madrid Barajas</t>
   </si>
   <si>
-    <t>Munich 2</t>
-  </si>
-  <si>
     <t>Paris Ch de Gaulle</t>
   </si>
   <si>
@@ -258,9 +255,6 @@
     <t>iridium</t>
   </si>
   <si>
-    <t>Paris  Ch de Gaulle</t>
-  </si>
-  <si>
     <t>hf_rtf</t>
   </si>
   <si>
@@ -418,6 +412,81 @@
   </si>
   <si>
     <t>ATR72-500</t>
+  </si>
+  <si>
+    <t>EBBR</t>
+  </si>
+  <si>
+    <t>EDDB</t>
+  </si>
+  <si>
+    <t>EDDF</t>
+  </si>
+  <si>
+    <t>EDDL</t>
+  </si>
+  <si>
+    <t>EDDM</t>
+  </si>
+  <si>
+    <t>EGCC</t>
+  </si>
+  <si>
+    <t>EGKK</t>
+  </si>
+  <si>
+    <t>EGLL</t>
+  </si>
+  <si>
+    <t>EGSS</t>
+  </si>
+  <si>
+    <t>EHAM</t>
+  </si>
+  <si>
+    <t>EIDW</t>
+  </si>
+  <si>
+    <t>EKCH</t>
+  </si>
+  <si>
+    <t>ENGM</t>
+  </si>
+  <si>
+    <t>ESSA</t>
+  </si>
+  <si>
+    <t>LEBL</t>
+  </si>
+  <si>
+    <t>LEMD</t>
+  </si>
+  <si>
+    <t>LEPA</t>
+  </si>
+  <si>
+    <t>LFMN</t>
+  </si>
+  <si>
+    <t>LFPG</t>
+  </si>
+  <si>
+    <t>LFPO</t>
+  </si>
+  <si>
+    <t>LIMC</t>
+  </si>
+  <si>
+    <t>LIRF</t>
+  </si>
+  <si>
+    <t>LOWW</t>
+  </si>
+  <si>
+    <t>LSZH</t>
+  </si>
+  <si>
+    <t>LTFM</t>
   </si>
 </sst>
 </file>
@@ -466,9 +535,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,7 +820,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,10 +846,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1066532</v>
+        <v>2029678</v>
       </c>
       <c r="C2">
-        <v>4.8000000000000001E-2</v>
+        <v>0.10970000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -789,10 +857,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1154182</v>
+        <v>1856684</v>
       </c>
       <c r="C3">
-        <v>5.1999999999999998E-2</v>
+        <v>0.1003</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -800,10 +868,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20771164</v>
+        <v>17931330</v>
       </c>
       <c r="C4">
-        <v>0.93500000000000005</v>
+        <v>0.96879999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -811,10 +879,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15788068</v>
+        <v>15712410</v>
       </c>
       <c r="C5">
-        <v>0.71099999999999997</v>
+        <v>0.84889999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -822,10 +890,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19241254</v>
+        <v>17295534</v>
       </c>
       <c r="C6">
-        <v>0.86599999999999999</v>
+        <v>0.93440000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -864,7 +932,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>4841403</v>
@@ -875,7 +943,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>1437964</v>
@@ -886,7 +954,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>274513</v>
@@ -897,7 +965,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5">
         <v>2645524</v>
@@ -908,7 +976,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6">
         <v>2729</v>
@@ -919,7 +987,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7">
         <v>975</v>
@@ -930,7 +998,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B8">
         <v>3512</v>
@@ -941,7 +1009,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>122008</v>
@@ -952,7 +1020,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B10">
         <v>88646</v>
@@ -962,8 +1030,8 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>75</v>
+      <c r="A11" t="s">
+        <v>73</v>
       </c>
       <c r="B11">
         <v>7409392</v>
@@ -974,7 +1042,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B12">
         <v>329079</v>
@@ -985,7 +1053,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B13">
         <v>44076</v>
@@ -996,7 +1064,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B14">
         <v>9195</v>
@@ -1007,7 +1075,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B15">
         <v>64899</v>
@@ -1018,7 +1086,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16">
         <v>6092</v>
@@ -1040,7 +1108,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B2" sqref="B2:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,36 +1121,36 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
         <v>81</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>82</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>83</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>84</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>85</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>86</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>87</v>
-      </c>
-      <c r="I1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B2">
         <v>0.877</v>
@@ -1114,7 +1182,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3">
         <v>0.75700000000000001</v>
@@ -1146,7 +1214,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B4">
         <v>0.53</v>
@@ -1178,7 +1246,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5">
         <v>0.41699999999999998</v>
@@ -1210,7 +1278,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B6">
         <v>0.57899999999999996</v>
@@ -1242,7 +1310,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B7">
         <v>0.34399999999999997</v>
@@ -1306,7 +1374,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B9">
         <v>0.31900000000000001</v>
@@ -1338,7 +1406,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B10">
         <v>0.46100000000000002</v>
@@ -1410,7 +1478,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,27 +1491,27 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
         <v>97</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>99</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>100</v>
-      </c>
-      <c r="F1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B2">
         <v>0.91600000000000004</v>
@@ -1466,7 +1534,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3">
         <v>0.95599999999999996</v>
@@ -1489,7 +1557,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B4">
         <v>0.89800000000000002</v>
@@ -1512,7 +1580,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5">
         <v>0.86199999999999999</v>
@@ -1535,7 +1603,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B6">
         <v>0.86099999999999999</v>
@@ -1558,7 +1626,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B7">
         <v>0.88300000000000001</v>
@@ -1604,7 +1672,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B9">
         <v>0.872</v>
@@ -1627,7 +1695,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B10">
         <v>0.81</v>
@@ -1681,7 +1749,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="M1" sqref="M1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1691,39 +1759,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
         <v>81</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>82</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>83</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>84</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>85</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>86</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>87</v>
-      </c>
-      <c r="I1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2">
         <v>0.46899999999999997</v>
@@ -1755,7 +1823,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>0.58599999999999997</v>
@@ -1787,7 +1855,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>0.57799999999999996</v>
@@ -1819,7 +1887,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>0.70799999999999996</v>
@@ -1851,7 +1919,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>0.64100000000000001</v>
@@ -1883,7 +1951,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B7">
         <v>0.81200000000000006</v>
@@ -1915,7 +1983,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B8">
         <v>0.40200000000000002</v>
@@ -1947,7 +2015,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B9">
         <v>0.42899999999999999</v>
@@ -1979,7 +2047,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>0.28499999999999998</v>
@@ -2011,7 +2079,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B11">
         <v>0.96399999999999997</v>
@@ -2043,7 +2111,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B12">
         <v>0.92300000000000004</v>
@@ -2075,7 +2143,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B13">
         <v>0.88300000000000001</v>
@@ -2107,7 +2175,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>0.70899999999999996</v>
@@ -2139,7 +2207,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2171,7 +2239,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B16">
         <v>0.33500000000000002</v>
@@ -2211,7 +2279,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="J1" sqref="J1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2221,30 +2289,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
         <v>97</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>99</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>100</v>
-      </c>
-      <c r="F1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2">
         <v>0.96499999999999997</v>
@@ -2267,7 +2335,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>0.86499999999999999</v>
@@ -2290,7 +2358,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>0.79600000000000004</v>
@@ -2313,7 +2381,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>0.93400000000000005</v>
@@ -2336,7 +2404,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>0.91</v>
@@ -2359,7 +2427,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B7">
         <v>0.94099999999999995</v>
@@ -2382,7 +2450,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B8">
         <v>0.97199999999999998</v>
@@ -2405,7 +2473,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B9">
         <v>0.56699999999999995</v>
@@ -2428,7 +2496,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>0.94899999999999995</v>
@@ -2451,7 +2519,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B11">
         <v>0.996</v>
@@ -2474,7 +2542,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B12">
         <v>0.64100000000000001</v>
@@ -2497,7 +2565,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B13">
         <v>0.89600000000000002</v>
@@ -2520,7 +2588,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>0.97499999999999998</v>
@@ -2543,7 +2611,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B15">
         <v>0.82699999999999996</v>
@@ -2566,7 +2634,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B16">
         <v>0.58599999999999997</v>
@@ -2597,7 +2665,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2607,22 +2675,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2630,19 +2698,19 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>2.5999999999999999E-2</v>
+        <v>5.1400000000000001E-2</v>
       </c>
       <c r="C2">
-        <v>2.4E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="D2">
-        <v>0.97399999999999998</v>
+        <v>0.99470000000000003</v>
       </c>
       <c r="E2">
-        <v>0.89500000000000002</v>
+        <v>0.94640000000000002</v>
       </c>
       <c r="F2">
-        <v>0.94599999999999995</v>
+        <v>0.98350000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2650,19 +2718,19 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>6.7000000000000004E-2</v>
+        <v>9.2899999999999996E-2</v>
       </c>
       <c r="C3">
-        <v>0.02</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="D3">
-        <v>0.97699999999999998</v>
+        <v>0.99890000000000001</v>
       </c>
       <c r="E3">
-        <v>0.89100000000000001</v>
+        <v>0.9456</v>
       </c>
       <c r="F3">
-        <v>0.94</v>
+        <v>0.99229999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2670,19 +2738,19 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>8.0000000000000002E-3</v>
+        <v>0.39250000000000002</v>
       </c>
       <c r="C4">
-        <v>3.0000000000000001E-3</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="D4">
-        <v>0.97099999999999997</v>
+        <v>0.98770000000000002</v>
       </c>
       <c r="E4">
-        <v>0.91300000000000003</v>
+        <v>0.95609999999999995</v>
       </c>
       <c r="F4">
-        <v>0.93100000000000005</v>
+        <v>0.9325</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2690,19 +2758,19 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>4.2000000000000003E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="C5">
-        <v>8.9999999999999993E-3</v>
+        <v>4.2900000000000001E-2</v>
       </c>
       <c r="D5">
-        <v>0.97899999999999998</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="E5">
-        <v>0.88200000000000001</v>
+        <v>0.94369999999999998</v>
       </c>
       <c r="F5">
-        <v>0.95399999999999996</v>
+        <v>0.99880000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2710,19 +2778,19 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>7.4999999999999997E-2</v>
+        <v>0.11990000000000001</v>
       </c>
       <c r="C6">
-        <v>1.6E-2</v>
+        <v>3.5299999999999998E-2</v>
       </c>
       <c r="D6">
-        <v>0.98</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="E6">
-        <v>0.88100000000000001</v>
+        <v>0.94410000000000005</v>
       </c>
       <c r="F6">
-        <v>0.96699999999999997</v>
+        <v>0.99780000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2730,99 +2798,99 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>2.1000000000000001E-2</v>
+        <v>7.7799999999999994E-2</v>
       </c>
       <c r="C7">
-        <v>0.1</v>
+        <v>0.1115</v>
       </c>
       <c r="D7">
-        <v>0.97</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="E7">
-        <v>0.72799999999999998</v>
+        <v>0.94389999999999996</v>
       </c>
       <c r="F7">
-        <v>0.89600000000000002</v>
+        <v>0.98109999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="B8">
-        <v>2.7E-2</v>
+        <v>4.9099999999999998E-2</v>
       </c>
       <c r="C8">
-        <v>0.03</v>
+        <v>0.1706</v>
       </c>
       <c r="D8">
-        <v>0.97399999999999998</v>
+        <v>0.99509999999999998</v>
       </c>
       <c r="E8">
-        <v>0.90500000000000003</v>
+        <v>0.9556</v>
       </c>
       <c r="F8">
-        <v>0.88700000000000001</v>
+        <v>0.98929999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>2.5999999999999999E-2</v>
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="C9">
-        <v>1.0999999999999999E-2</v>
+        <v>6.7900000000000002E-2</v>
       </c>
       <c r="D9">
-        <v>0.97899999999999998</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="E9">
-        <v>0.79400000000000004</v>
+        <v>0.93920000000000003</v>
       </c>
       <c r="F9">
-        <v>0.92700000000000005</v>
+        <v>0.98009999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>2.1999999999999999E-2</v>
+        <v>0.13639999999999999</v>
       </c>
       <c r="C10">
-        <v>5.0000000000000001E-3</v>
+        <v>1.67E-2</v>
       </c>
       <c r="D10">
-        <v>0.97899999999999998</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="E10">
-        <v>0.90600000000000003</v>
+        <v>0.95140000000000002</v>
       </c>
       <c r="F10">
-        <v>0.93899999999999995</v>
+        <v>0.98950000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>1.9E-2</v>
+        <v>3.2500000000000001E-2</v>
       </c>
       <c r="C11">
-        <v>1.4999999999999999E-2</v>
+        <v>4.0099999999999997E-2</v>
       </c>
       <c r="D11">
-        <v>0.97899999999999998</v>
+        <v>0.99870000000000003</v>
       </c>
       <c r="E11">
-        <v>0.875</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="F11">
-        <v>0.95699999999999996</v>
+        <v>0.99009999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -2835,7 +2903,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2845,22 +2913,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2868,19 +2936,19 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0.06</v>
+        <v>0.1041</v>
       </c>
       <c r="C2">
-        <v>7.1999999999999995E-2</v>
+        <v>0.12280000000000001</v>
       </c>
       <c r="D2">
-        <v>0.98799999999999999</v>
+        <v>0.9879</v>
       </c>
       <c r="E2">
-        <v>0.85</v>
+        <v>0.878</v>
       </c>
       <c r="F2">
-        <v>0.94799999999999995</v>
+        <v>0.98350000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2888,19 +2956,19 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>8.1000000000000003E-2</v>
+        <v>0.1231</v>
       </c>
       <c r="C3">
-        <v>6.7000000000000004E-2</v>
+        <v>0.1449</v>
       </c>
       <c r="D3">
-        <v>0.98799999999999999</v>
+        <v>0.99250000000000005</v>
       </c>
       <c r="E3">
-        <v>0.82399999999999995</v>
+        <v>0.87780000000000002</v>
       </c>
       <c r="F3">
-        <v>0.95099999999999996</v>
+        <v>0.98350000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2908,19 +2976,19 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>4.7E-2</v>
+        <v>0.1313</v>
       </c>
       <c r="C4">
-        <v>1.7000000000000001E-2</v>
+        <v>6.9500000000000006E-2</v>
       </c>
       <c r="D4">
-        <v>0.98199999999999998</v>
+        <v>0.97450000000000003</v>
       </c>
       <c r="E4">
-        <v>0.878</v>
+        <v>0.88749999999999996</v>
       </c>
       <c r="F4">
-        <v>0.90200000000000002</v>
+        <v>0.89780000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2928,19 +2996,19 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>9.7000000000000003E-2</v>
+        <v>0.1232</v>
       </c>
       <c r="C5">
-        <v>2.9000000000000001E-2</v>
+        <v>4.2900000000000001E-2</v>
       </c>
       <c r="D5">
-        <v>0.995</v>
+        <v>0.99819999999999998</v>
       </c>
       <c r="E5">
-        <v>0.87</v>
+        <v>0.92889999999999995</v>
       </c>
       <c r="F5">
-        <v>0.96499999999999997</v>
+        <v>0.99329999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2948,19 +3016,19 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.107</v>
+        <v>0.1933</v>
       </c>
       <c r="C6">
-        <v>2.1999999999999999E-2</v>
+        <v>5.9700000000000003E-2</v>
       </c>
       <c r="D6">
-        <v>0.999</v>
+        <v>0.99890000000000001</v>
       </c>
       <c r="E6">
-        <v>0.879</v>
+        <v>0.94869999999999999</v>
       </c>
       <c r="F6">
-        <v>0.97899999999999998</v>
+        <v>0.99560000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2968,99 +3036,99 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>8.1000000000000003E-2</v>
+        <v>0.1147</v>
       </c>
       <c r="C7">
-        <v>8.2000000000000003E-2</v>
+        <v>0.15260000000000001</v>
       </c>
       <c r="D7">
-        <v>0.98199999999999998</v>
+        <v>0.98670000000000002</v>
       </c>
       <c r="E7">
-        <v>0.81399999999999995</v>
+        <v>0.87570000000000003</v>
       </c>
       <c r="F7">
-        <v>0.93100000000000005</v>
+        <v>0.98109999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="B8">
-        <v>6.0999999999999999E-2</v>
+        <v>9.4899999999999998E-2</v>
       </c>
       <c r="C8">
-        <v>7.2999999999999995E-2</v>
+        <v>0.1706</v>
       </c>
       <c r="D8">
-        <v>0.98299999999999998</v>
+        <v>0.98440000000000005</v>
       </c>
       <c r="E8">
-        <v>0.83199999999999996</v>
+        <v>0.86119999999999997</v>
       </c>
       <c r="F8">
-        <v>0.94599999999999995</v>
+        <v>0.98019999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>6.5000000000000002E-2</v>
+        <v>0.1048</v>
       </c>
       <c r="C9">
-        <v>2.5999999999999999E-2</v>
+        <v>4.3799999999999999E-2</v>
       </c>
       <c r="D9">
-        <v>0.997</v>
+        <v>0.99790000000000001</v>
       </c>
       <c r="E9">
-        <v>0.82099999999999995</v>
+        <v>0.91269999999999996</v>
       </c>
       <c r="F9">
-        <v>0.93899999999999995</v>
+        <v>0.98550000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>6.2E-2</v>
+        <v>0.1343</v>
       </c>
       <c r="C10">
-        <v>1.4E-2</v>
+        <v>3.6499999999999998E-2</v>
       </c>
       <c r="D10">
-        <v>0.995</v>
+        <v>0.99650000000000005</v>
       </c>
       <c r="E10">
-        <v>0.86599999999999999</v>
+        <v>0.92669999999999997</v>
       </c>
       <c r="F10">
-        <v>0.94</v>
+        <v>0.9889</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>5.6000000000000001E-2</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="C11">
-        <v>0.06</v>
+        <v>0.1424</v>
       </c>
       <c r="D11">
-        <v>0.98899999999999999</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="E11">
-        <v>0.80500000000000005</v>
+        <v>0.88170000000000004</v>
       </c>
       <c r="F11">
-        <v>0.95899999999999996</v>
+        <v>0.98809999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -3073,7 +3141,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3083,247 +3151,247 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2">
-        <v>7.0999999999999994E-2</v>
+        <v>0.2145</v>
       </c>
       <c r="C2">
-        <v>3.0000000000000001E-3</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="D2">
-        <v>0.97399999999999998</v>
+        <v>0.97640000000000005</v>
       </c>
       <c r="E2">
-        <v>0.80900000000000005</v>
+        <v>0.89359999999999995</v>
       </c>
       <c r="F2">
-        <v>0.90200000000000002</v>
+        <v>0.92120000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3">
-        <v>0.01</v>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="C3">
-        <v>1E-3</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="D3">
-        <v>0.97799999999999998</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="E3">
-        <v>0.80500000000000005</v>
+        <v>0.88739999999999997</v>
       </c>
       <c r="F3">
-        <v>0.92900000000000005</v>
+        <v>0.96719999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4">
-        <v>0.01</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="D4">
-        <v>0.97899999999999998</v>
+        <v>0.99109999999999998</v>
       </c>
       <c r="E4">
-        <v>0.78400000000000003</v>
+        <v>0.8891</v>
       </c>
       <c r="F4">
-        <v>0.96099999999999997</v>
+        <v>0.96230000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5">
-        <v>4.3999999999999997E-2</v>
+        <v>6.2199999999999998E-2</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.98</v>
+        <v>0.98089999999999999</v>
       </c>
       <c r="E5">
-        <v>0.85899999999999999</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="F5">
-        <v>0.96399999999999997</v>
+        <v>0.97370000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6">
-        <v>0.186</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>6.4000000000000001E-2</v>
+        <v>0.1527</v>
       </c>
       <c r="D6">
-        <v>0.96199999999999997</v>
+        <v>0.95420000000000005</v>
       </c>
       <c r="E6">
-        <v>0.17100000000000001</v>
+        <v>0.70989999999999998</v>
       </c>
       <c r="F6">
-        <v>0.88900000000000001</v>
+        <v>0.87019999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>5.7000000000000002E-2</v>
+        <v>9.3100000000000002E-2</v>
       </c>
       <c r="D7">
-        <v>0.76900000000000002</v>
+        <v>0.94140000000000001</v>
       </c>
       <c r="E7">
-        <v>0.16200000000000001</v>
+        <v>0.6069</v>
       </c>
       <c r="F7">
-        <v>0.60399999999999998</v>
+        <v>0.85860000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8">
-        <v>1E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1.9E-3</v>
       </c>
       <c r="D8">
-        <v>0.98</v>
+        <v>0.99809999999999999</v>
       </c>
       <c r="E8">
-        <v>0.97599999999999998</v>
+        <v>0.99709999999999999</v>
       </c>
       <c r="F8">
-        <v>0.96399999999999997</v>
+        <v>0.98950000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9">
-        <v>1E-3</v>
+        <v>2.8899999999999999E-2</v>
       </c>
       <c r="C9">
-        <v>6.0000000000000001E-3</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D9">
-        <v>0.97599999999999998</v>
+        <v>0.99680000000000002</v>
       </c>
       <c r="E9">
-        <v>0.88800000000000001</v>
+        <v>0.92769999999999997</v>
       </c>
       <c r="F9">
-        <v>0.92</v>
+        <v>0.95660000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10">
-        <v>1.0999999999999999E-2</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="D10">
-        <v>0.98</v>
+        <v>0.99429999999999996</v>
       </c>
       <c r="E10">
-        <v>0.64700000000000002</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="F10">
-        <v>0.96399999999999997</v>
+        <v>0.99429999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11">
-        <v>4.0000000000000001E-3</v>
+        <v>0.1104</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.98</v>
+        <v>0.996</v>
       </c>
       <c r="E11">
-        <v>0.91900000000000004</v>
+        <v>0.96589999999999998</v>
       </c>
       <c r="F11">
-        <v>0.97699999999999998</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12">
-        <v>0.442</v>
+        <v>0.49869999999999998</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.97899999999999998</v>
+        <v>0.99870000000000003</v>
       </c>
       <c r="E12">
-        <v>0.96099999999999997</v>
+        <v>0.92930000000000001</v>
       </c>
       <c r="F12">
-        <v>0.93300000000000005</v>
+        <v>0.99370000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3332,18 +3400,18 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.98</v>
+        <v>0.97589999999999999</v>
       </c>
       <c r="E13">
-        <v>0.88500000000000001</v>
+        <v>0.93979999999999997</v>
       </c>
       <c r="F13">
-        <v>0.88100000000000001</v>
+        <v>0.98799999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3352,38 +3420,38 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.96199999999999997</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="E14">
-        <v>0.44500000000000001</v>
+        <v>0.7742</v>
       </c>
       <c r="F14">
-        <v>0.86299999999999999</v>
+        <v>0.94620000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="D15">
-        <v>0.97699999999999998</v>
+        <v>0.98809999999999998</v>
       </c>
       <c r="E15">
-        <v>0.81100000000000005</v>
+        <v>0.90769999999999995</v>
       </c>
       <c r="F15">
-        <v>0.79200000000000004</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3392,19 +3460,16 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.97599999999999998</v>
+        <v>0.92859999999999998</v>
       </c>
       <c r="E16">
-        <v>0.65100000000000002</v>
+        <v>0.91069999999999995</v>
       </c>
       <c r="F16">
-        <v>0.97499999999999998</v>
+        <v>0.89290000000000003</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" location="_ftn2" display="_ftn2" xr:uid="{B1AE4360-6911-421E-BB06-E1E7322E2E09}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3414,7 +3479,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3437,145 +3502,145 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>9160750</v>
+        <v>34120473</v>
       </c>
       <c r="C2">
-        <v>0.41199999999999998</v>
+        <v>0.41699999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>10252210</v>
+        <v>3682878</v>
       </c>
       <c r="C3">
-        <v>0.46200000000000002</v>
+        <v>0.44979999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>7065296</v>
+        <v>5836183</v>
       </c>
       <c r="C4">
-        <v>0.318</v>
+        <v>0.71289999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>2070030</v>
+        <v>914209</v>
       </c>
       <c r="C5">
-        <v>9.2999999999999999E-2</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>2654930</v>
+        <v>647681</v>
       </c>
       <c r="C6">
-        <v>1.7000000000000001E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>385784</v>
+        <v>241932</v>
       </c>
       <c r="C7">
-        <v>1.7000000000000001E-2</v>
+        <v>2.9600000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>10825396</v>
+        <v>3547340</v>
       </c>
       <c r="C8">
-        <v>0.48699999999999999</v>
+        <v>0.46329999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>2705550</v>
+        <v>616204</v>
       </c>
       <c r="C9">
-        <v>0.122</v>
+        <v>7.5300000000000006E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>276730</v>
+        <v>35481</v>
       </c>
       <c r="C10">
-        <v>1.2999999999999999E-2</v>
+        <v>4.3E-3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>613286</v>
+        <v>329184</v>
       </c>
       <c r="C11">
-        <v>2.8000000000000001E-2</v>
+        <v>4.02E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>585788</v>
+        <v>262483</v>
       </c>
       <c r="C12">
-        <v>2.5999999999999999E-2</v>
+        <v>3.2099999999999997E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>2945674</v>
+        <v>906101</v>
       </c>
       <c r="C13">
-        <v>0.13300000000000001</v>
+        <v>0.11070000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>22018258</v>
+        <v>8168841</v>
       </c>
       <c r="C14">
-        <v>0.99099999999999999</v>
+        <v>0.99780000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -3585,10 +3650,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECE6454-E65A-4392-8F47-6E55AFAC4506}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3604,255 +3669,600 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>58</v>
-      </c>
-      <c r="G1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="B2">
-        <v>0.26</v>
+        <v>0.26769999999999999</v>
       </c>
       <c r="C2">
-        <v>0.315</v>
+        <v>0.60619999999999996</v>
       </c>
       <c r="D2">
-        <v>0.219</v>
+        <v>0.78739999999999999</v>
       </c>
       <c r="E2">
-        <v>5.8000000000000003E-2</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="F2">
-        <v>6.6000000000000003E-2</v>
+        <v>0.1431</v>
       </c>
       <c r="G2">
-        <v>8.0000000000000002E-3</v>
+        <v>3.7499999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="B3">
-        <v>0.78800000000000003</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="C3">
-        <v>0.73299999999999998</v>
+        <v>0.60440000000000005</v>
       </c>
       <c r="D3">
-        <v>0.48699999999999999</v>
+        <v>0.85970000000000002</v>
       </c>
       <c r="E3">
-        <v>0.154</v>
+        <v>8.3400000000000002E-2</v>
       </c>
       <c r="F3">
-        <v>0.187</v>
+        <v>4.3099999999999999E-2</v>
       </c>
       <c r="G3">
-        <v>3.7999999999999999E-2</v>
+        <v>2.0299999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="B4">
-        <v>0.83399999999999996</v>
+        <v>0.81810000000000005</v>
       </c>
       <c r="C4">
-        <v>0.83499999999999996</v>
+        <v>0.81389999999999996</v>
       </c>
       <c r="D4">
-        <v>0.66700000000000004</v>
+        <v>0.74009999999999998</v>
       </c>
       <c r="E4">
-        <v>0.22800000000000001</v>
+        <v>0.1782</v>
       </c>
       <c r="F4">
-        <v>0.23200000000000001</v>
+        <v>0.22919999999999999</v>
       </c>
       <c r="G4">
-        <v>2E-3</v>
+        <v>3.2099999999999997E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="B5">
-        <v>0.64500000000000002</v>
+        <v>0.56310000000000004</v>
       </c>
       <c r="C5">
-        <v>0.754</v>
+        <v>0.56359999999999999</v>
       </c>
       <c r="D5">
-        <v>0.69</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="E5">
-        <v>6.2E-2</v>
+        <v>3.32E-2</v>
       </c>
       <c r="F5">
-        <v>0.109</v>
+        <v>2.9100000000000001E-2</v>
       </c>
       <c r="G5">
-        <v>1.6E-2</v>
+        <v>7.7999999999999996E-3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="B6">
-        <v>0.31900000000000001</v>
+        <v>0.8034</v>
       </c>
       <c r="C6">
-        <v>0.88500000000000001</v>
+        <v>0.78059999999999996</v>
       </c>
       <c r="D6">
-        <v>0.36099999999999999</v>
+        <v>0.83340000000000003</v>
       </c>
       <c r="E6">
-        <v>0.187</v>
+        <v>9.6600000000000005E-2</v>
       </c>
       <c r="F6">
-        <v>0.36799999999999999</v>
+        <v>9.7699999999999995E-2</v>
       </c>
       <c r="G6">
-        <v>2.3E-2</v>
+        <v>1.7899999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="B7">
-        <v>0.20499999999999999</v>
+        <v>0.37509999999999999</v>
       </c>
       <c r="C7">
-        <v>0.28000000000000003</v>
+        <v>0.433</v>
       </c>
       <c r="D7">
-        <v>0.23400000000000001</v>
+        <v>0.8256</v>
       </c>
       <c r="E7">
-        <v>0.114</v>
+        <v>0.10630000000000001</v>
       </c>
       <c r="F7">
-        <v>0.16200000000000001</v>
+        <v>0.1007</v>
       </c>
       <c r="G7">
-        <v>7.0000000000000001E-3</v>
+        <v>5.62E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="B8">
-        <v>0.80700000000000005</v>
+        <v>0.65129999999999999</v>
       </c>
       <c r="C8">
-        <v>0.67800000000000005</v>
+        <v>0.73829999999999996</v>
       </c>
       <c r="D8">
-        <v>0.41099999999999998</v>
+        <v>0.93559999999999999</v>
       </c>
       <c r="E8">
-        <v>8.2000000000000003E-2</v>
+        <v>9.0499999999999997E-2</v>
       </c>
       <c r="F8">
-        <v>8.8999999999999996E-2</v>
+        <v>5.8099999999999999E-2</v>
       </c>
       <c r="G8">
-        <v>8.9999999999999993E-3</v>
+        <v>2.29E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="B9">
-        <v>0.72899999999999998</v>
+        <v>0.33550000000000002</v>
       </c>
       <c r="C9">
-        <v>0.76500000000000001</v>
+        <v>0.85409999999999997</v>
       </c>
       <c r="D9">
-        <v>0.54300000000000004</v>
+        <v>0.80769999999999997</v>
       </c>
       <c r="E9">
-        <v>0.115</v>
+        <v>0.28849999999999998</v>
       </c>
       <c r="F9">
-        <v>0.217</v>
+        <v>0.38590000000000002</v>
       </c>
       <c r="G9">
-        <v>2.7E-2</v>
+        <v>3.9100000000000003E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="B10">
-        <v>0.23300000000000001</v>
+        <v>0.16539999999999999</v>
       </c>
       <c r="C10">
-        <v>0.28299999999999997</v>
+        <v>0.12670000000000001</v>
       </c>
       <c r="D10">
-        <v>0.29599999999999999</v>
+        <v>0.8881</v>
       </c>
       <c r="E10">
-        <v>7.8E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="F10">
-        <v>0.113</v>
+        <v>5.7599999999999998E-2</v>
       </c>
       <c r="G10">
-        <v>1.0999999999999999E-2</v>
+        <v>6.2199999999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="B11">
-        <v>0.79900000000000004</v>
+        <v>0.81240000000000001</v>
       </c>
       <c r="C11">
-        <v>0.82799999999999996</v>
+        <v>0.83509999999999995</v>
       </c>
       <c r="D11">
-        <v>0.20799999999999999</v>
+        <v>0.84670000000000001</v>
       </c>
       <c r="E11">
-        <v>5.7000000000000002E-2</v>
+        <v>9.2499999999999999E-2</v>
       </c>
       <c r="F11">
-        <v>0.157</v>
+        <v>0.16270000000000001</v>
       </c>
       <c r="G11">
-        <v>2.3E-2</v>
+        <v>3.3399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="C12">
+        <v>0.43309999999999998</v>
+      </c>
+      <c r="D12">
+        <v>0.81120000000000003</v>
+      </c>
+      <c r="E12">
+        <v>0.126</v>
+      </c>
+      <c r="F12">
+        <v>9.0200000000000002E-2</v>
+      </c>
+      <c r="G12">
+        <v>8.09E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13">
+        <v>0.31090000000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.65939999999999999</v>
+      </c>
+      <c r="D13">
+        <v>0.78610000000000002</v>
+      </c>
+      <c r="E13">
+        <v>0.1103</v>
+      </c>
+      <c r="F13">
+        <v>5.3800000000000001E-2</v>
+      </c>
+      <c r="G13">
+        <v>4.1700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14">
+        <v>0.40539999999999998</v>
+      </c>
+      <c r="C14">
+        <v>0.81069999999999998</v>
+      </c>
+      <c r="D14">
+        <v>0.84319999999999995</v>
+      </c>
+      <c r="E14">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="F14">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="G14">
+        <v>4.6199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15">
+        <v>0.32979999999999998</v>
+      </c>
+      <c r="C15">
+        <v>0.61429999999999996</v>
+      </c>
+      <c r="D15">
+        <v>0.81610000000000005</v>
+      </c>
+      <c r="E15">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="F15">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="G15">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16">
+        <v>0.2387</v>
+      </c>
+      <c r="C16">
+        <v>0.27960000000000002</v>
+      </c>
+      <c r="D16">
+        <v>0.8821</v>
+      </c>
+      <c r="E16">
+        <v>7.9100000000000004E-2</v>
+      </c>
+      <c r="F16">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="G16">
+        <v>2.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17">
+        <v>0.2442</v>
+      </c>
+      <c r="C17">
+        <v>0.31840000000000002</v>
+      </c>
+      <c r="D17">
+        <v>0.88470000000000004</v>
+      </c>
+      <c r="E17">
+        <v>0.15840000000000001</v>
+      </c>
+      <c r="F17">
+        <v>0.17660000000000001</v>
+      </c>
+      <c r="G17">
+        <v>1.6500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18">
+        <v>0.37059999999999998</v>
+      </c>
+      <c r="C18">
+        <v>0.33210000000000001</v>
+      </c>
+      <c r="D18">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="E18">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="F18">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="G18">
+        <v>1.3299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19">
+        <v>0.58989999999999998</v>
+      </c>
+      <c r="C19">
+        <v>0.62770000000000004</v>
+      </c>
+      <c r="D19">
+        <v>0.71689999999999998</v>
+      </c>
+      <c r="E19">
+        <v>0.14480000000000001</v>
+      </c>
+      <c r="F19">
+        <v>9.6199999999999994E-2</v>
+      </c>
+      <c r="G19">
+        <v>3.4299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20">
+        <v>0.79759999999999998</v>
+      </c>
+      <c r="C20">
+        <v>0.8327</v>
+      </c>
+      <c r="D20">
+        <v>0.75170000000000003</v>
+      </c>
+      <c r="E20">
+        <v>0.2445</v>
+      </c>
+      <c r="F20">
+        <v>0.23669999999999999</v>
+      </c>
+      <c r="G20">
+        <v>3.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21">
+        <v>0.35460000000000003</v>
+      </c>
+      <c r="C21">
+        <v>0.40629999999999999</v>
+      </c>
+      <c r="D21">
+        <v>0.87549999999999994</v>
+      </c>
+      <c r="E21">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="F21">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="G21">
+        <v>1.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22">
+        <v>0.55879999999999996</v>
+      </c>
+      <c r="C22">
+        <v>0.60819999999999996</v>
+      </c>
+      <c r="D22">
+        <v>0.77749999999999997</v>
+      </c>
+      <c r="E22">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="F22">
+        <v>0.1285</v>
+      </c>
+      <c r="G22">
+        <v>3.5799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23">
+        <v>0.30680000000000002</v>
+      </c>
+      <c r="C23">
+        <v>0.35870000000000002</v>
+      </c>
+      <c r="D23">
+        <v>0.8931</v>
+      </c>
+      <c r="E23">
+        <v>0.14630000000000001</v>
+      </c>
+      <c r="F23">
+        <v>8.77E-2</v>
+      </c>
+      <c r="G23">
+        <v>3.0700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24">
+        <v>0.78169999999999995</v>
+      </c>
+      <c r="C24">
+        <v>0.42949999999999999</v>
+      </c>
+      <c r="D24">
+        <v>0.8639</v>
+      </c>
+      <c r="E24">
+        <v>9.7799999999999998E-2</v>
+      </c>
+      <c r="F24">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="G24">
+        <v>2.07E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25">
+        <v>0.74619999999999997</v>
+      </c>
+      <c r="C25">
+        <v>0.76519999999999999</v>
+      </c>
+      <c r="D25">
+        <v>0.79959999999999998</v>
+      </c>
+      <c r="E25">
+        <v>0.15290000000000001</v>
+      </c>
+      <c r="F25">
+        <v>0.14410000000000001</v>
+      </c>
+      <c r="G25">
+        <v>2.1499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26">
+        <v>0.83850000000000002</v>
+      </c>
+      <c r="C26">
+        <v>0.83340000000000003</v>
+      </c>
+      <c r="D26">
+        <v>0.75290000000000001</v>
+      </c>
+      <c r="E26">
+        <v>0.2727</v>
+      </c>
+      <c r="F26">
+        <v>0.2344</v>
+      </c>
+      <c r="G26">
+        <v>6.6E-3</v>
       </c>
     </row>
   </sheetData>
@@ -3862,10 +4272,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B8A7C9-BC2A-4A40-8452-C9C3F38868A5}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3876,129 +4286,129 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>63</v>
-      </c>
-      <c r="G1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="B2">
-        <v>0.65800000000000003</v>
+        <v>0.62090000000000001</v>
       </c>
       <c r="C2">
-        <v>9.0999999999999998E-2</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="E2">
-        <v>1.7000000000000001E-2</v>
+        <v>2.9100000000000001E-2</v>
       </c>
       <c r="F2">
-        <v>8.0000000000000002E-3</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="G2">
-        <v>0.41799999999999998</v>
+        <v>0.3906</v>
       </c>
       <c r="H2">
-        <v>0.999</v>
+        <v>0.99980000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="B3">
-        <v>0.32</v>
+        <v>0.39360000000000001</v>
       </c>
       <c r="C3">
-        <v>0.184</v>
+        <v>5.5300000000000002E-2</v>
       </c>
       <c r="D3">
-        <v>4.0000000000000001E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E3">
-        <v>3.5000000000000003E-2</v>
+        <v>2.8299999999999999E-2</v>
       </c>
       <c r="F3">
-        <v>8.0000000000000002E-3</v>
+        <v>2.24E-2</v>
       </c>
       <c r="G3">
-        <v>7.1999999999999995E-2</v>
+        <v>9.4399999999999998E-2</v>
       </c>
       <c r="H3">
-        <v>0.999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="B4">
-        <v>0.95099999999999996</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="C4">
-        <v>0.19800000000000001</v>
+        <v>0.22339999999999999</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>6.3E-3</v>
       </c>
       <c r="E4">
-        <v>2.1000000000000001E-2</v>
+        <v>3.0700000000000002E-2</v>
       </c>
       <c r="F4">
-        <v>0.01</v>
+        <v>1.17E-2</v>
       </c>
       <c r="G4">
-        <v>9.6000000000000002E-2</v>
+        <v>8.5199999999999998E-2</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0.99990000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="B5">
-        <v>0.68899999999999995</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="C5">
-        <v>9.8000000000000004E-2</v>
+        <v>2.8899999999999999E-2</v>
       </c>
       <c r="D5">
-        <v>2.9000000000000001E-2</v>
+        <v>1E-4</v>
       </c>
       <c r="E5">
-        <v>8.0000000000000002E-3</v>
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="F5">
-        <v>7.0000000000000001E-3</v>
+        <v>1.84E-2</v>
       </c>
       <c r="G5">
-        <v>0.09</v>
+        <v>0.22520000000000001</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -4006,164 +4416,548 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="B6">
-        <v>0.58299999999999996</v>
+        <v>0.24079999999999999</v>
       </c>
       <c r="C6">
-        <v>0.36799999999999999</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="D6">
-        <v>0.14099999999999999</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="E6">
-        <v>2.5999999999999999E-2</v>
+        <v>2.5899999999999999E-2</v>
       </c>
       <c r="F6">
-        <v>1.2E-2</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="G6">
-        <v>5.7000000000000002E-2</v>
+        <v>6.8599999999999994E-2</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0.99990000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="B7">
-        <v>0.63200000000000001</v>
+        <v>0.54920000000000002</v>
       </c>
       <c r="C7">
-        <v>0.32100000000000001</v>
+        <v>0.1004</v>
       </c>
       <c r="D7">
-        <v>4.0000000000000001E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="E7">
-        <v>1.0999999999999999E-2</v>
+        <v>3.7100000000000001E-2</v>
       </c>
       <c r="F7">
-        <v>6.0000000000000001E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="G7">
-        <v>0.05</v>
+        <v>5.8799999999999998E-2</v>
       </c>
       <c r="H7">
-        <v>0.999</v>
+        <v>0.99990000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="B8">
-        <v>0.246</v>
+        <v>0.63049999999999995</v>
       </c>
       <c r="C8">
-        <v>9.4E-2</v>
+        <v>6.0600000000000001E-2</v>
       </c>
       <c r="D8">
-        <v>2E-3</v>
+        <v>2.7699999999999999E-2</v>
       </c>
       <c r="E8">
-        <v>1.4E-2</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="F8">
-        <v>1.0999999999999999E-2</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="G8">
-        <v>6.0999999999999999E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="H8">
-        <v>0.999</v>
+        <v>0.99990000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="B9">
-        <v>0.48699999999999999</v>
+        <v>0.62339999999999995</v>
       </c>
       <c r="C9">
-        <v>0.219</v>
+        <v>0.3856</v>
       </c>
       <c r="D9">
-        <v>7.6999999999999999E-2</v>
+        <v>0.12709999999999999</v>
       </c>
       <c r="E9">
-        <v>3.5000000000000003E-2</v>
+        <v>4.1399999999999999E-2</v>
       </c>
       <c r="F9">
-        <v>0.01</v>
+        <v>9.7000000000000003E-3</v>
       </c>
       <c r="G9">
-        <v>7.6999999999999999E-2</v>
+        <v>5.9900000000000002E-2</v>
       </c>
       <c r="H9">
-        <v>0.996</v>
+        <v>0.99970000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="B10">
-        <v>0.39100000000000001</v>
+        <v>0.33019999999999999</v>
       </c>
       <c r="C10">
-        <v>0.121</v>
+        <v>4.5900000000000003E-2</v>
       </c>
       <c r="D10">
-        <v>2E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E10">
-        <v>1.2999999999999999E-2</v>
+        <v>4.3299999999999998E-2</v>
       </c>
       <c r="F10">
-        <v>1.0999999999999999E-2</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="G10">
-        <v>0.13300000000000001</v>
+        <v>4.87E-2</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0.99980000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="B11">
-        <v>0.40799999999999997</v>
+        <v>0.4108</v>
       </c>
       <c r="C11">
-        <v>0.08</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="E11">
-        <v>2.7E-2</v>
+        <v>3.6400000000000002E-2</v>
       </c>
       <c r="F11">
-        <v>4.0000000000000001E-3</v>
+        <v>6.3E-3</v>
       </c>
       <c r="G11">
-        <v>6.5000000000000002E-2</v>
+        <v>7.0599999999999996E-2</v>
       </c>
       <c r="H11">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J18">
-        <f>100/8</f>
-        <v>12.5</v>
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="C12">
+        <v>8.3799999999999999E-2</v>
+      </c>
+      <c r="D12">
+        <v>3.8E-3</v>
+      </c>
+      <c r="E12">
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="F12">
+        <v>1.09E-2</v>
+      </c>
+      <c r="G12">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13">
+        <v>0.40039999999999998</v>
+      </c>
+      <c r="C13">
+        <v>6.0100000000000001E-2</v>
+      </c>
+      <c r="D13">
+        <v>1E-4</v>
+      </c>
+      <c r="E13">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="F13">
+        <v>1.15E-2</v>
+      </c>
+      <c r="G13">
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="H13">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14">
+        <v>0.47360000000000002</v>
+      </c>
+      <c r="C14">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="D14">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E14">
+        <v>2.06E-2</v>
+      </c>
+      <c r="F14">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G14">
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15">
+        <v>0.32840000000000003</v>
+      </c>
+      <c r="C15">
+        <v>6.2799999999999995E-2</v>
+      </c>
+      <c r="D15">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="E15">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="F15">
+        <v>1.01E-2</v>
+      </c>
+      <c r="G15">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16">
+        <v>0.51129999999999998</v>
+      </c>
+      <c r="C16">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="D16">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="E16">
+        <v>2.47E-2</v>
+      </c>
+      <c r="F16">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="G16">
+        <v>0.4113</v>
+      </c>
+      <c r="H16">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17">
+        <v>0.60760000000000003</v>
+      </c>
+      <c r="C17">
+        <v>0.1608</v>
+      </c>
+      <c r="D17">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="E17">
+        <v>1.78E-2</v>
+      </c>
+      <c r="F17">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="G17">
+        <v>3.15E-2</v>
+      </c>
+      <c r="H17">
+        <v>0.99929999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18">
+        <v>0.49969999999999998</v>
+      </c>
+      <c r="C18">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="D18">
+        <v>1E-4</v>
+      </c>
+      <c r="E18">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F18">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="G18">
+        <v>0.13569999999999999</v>
+      </c>
+      <c r="H18">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19">
+        <v>0.49330000000000002</v>
+      </c>
+      <c r="C19">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="D19">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="E19">
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="F19">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="G19">
+        <v>5.5100000000000003E-2</v>
+      </c>
+      <c r="H19">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20">
+        <v>0.50290000000000001</v>
+      </c>
+      <c r="C20">
+        <v>0.24179999999999999</v>
+      </c>
+      <c r="D20">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="E20">
+        <v>4.7100000000000003E-2</v>
+      </c>
+      <c r="F20">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="G20">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="H20">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21">
+        <v>0.72589999999999999</v>
+      </c>
+      <c r="C21">
+        <v>9.7299999999999998E-2</v>
+      </c>
+      <c r="D21">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E21">
+        <v>1.47E-2</v>
+      </c>
+      <c r="F21">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="G21">
+        <v>0.16209999999999999</v>
+      </c>
+      <c r="H21">
+        <v>0.99929999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22">
+        <v>0.57930000000000004</v>
+      </c>
+      <c r="C22">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="D22">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="E22">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="F22">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="G22">
+        <v>8.5900000000000004E-2</v>
+      </c>
+      <c r="H22">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23">
+        <v>0.38169999999999998</v>
+      </c>
+      <c r="C23">
+        <v>9.2600000000000002E-2</v>
+      </c>
+      <c r="D23">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="E23">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="F23">
+        <v>1.78E-2</v>
+      </c>
+      <c r="G23">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="H23">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="C24">
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="D24">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="E24">
+        <v>2.75E-2</v>
+      </c>
+      <c r="F24">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="G24">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="H24">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25">
+        <v>0.37580000000000002</v>
+      </c>
+      <c r="C25">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D25">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E25">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="F25">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="G25">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="H25">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26">
+        <v>0.93759999999999999</v>
+      </c>
+      <c r="C26">
+        <v>0.31509999999999999</v>
+      </c>
+      <c r="D26">
+        <v>1E-4</v>
+      </c>
+      <c r="E26">
+        <v>0.1183</v>
+      </c>
+      <c r="F26">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="G26">
+        <v>4.8800000000000003E-2</v>
+      </c>
+      <c r="H26">
+        <v>0.99980000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -4176,13 +4970,13 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
@@ -4192,154 +4986,154 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>58</v>
-      </c>
-      <c r="G1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2">
-        <v>0.22500000000000001</v>
+        <v>0.59789999999999999</v>
       </c>
       <c r="C2">
-        <v>0.28799999999999998</v>
+        <v>0.64739999999999998</v>
       </c>
       <c r="D2">
-        <v>0.27100000000000002</v>
+        <v>0.81859999999999999</v>
       </c>
       <c r="E2">
-        <v>0.01</v>
+        <v>8.6599999999999996E-2</v>
       </c>
       <c r="F2">
-        <v>2E-3</v>
+        <v>9.0700000000000003E-2</v>
       </c>
       <c r="G2">
-        <v>2E-3</v>
+        <v>1.24E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3">
-        <v>0.625</v>
+        <v>0.53220000000000001</v>
       </c>
       <c r="C3">
-        <v>0.62</v>
+        <v>0.49940000000000001</v>
       </c>
       <c r="D3">
-        <v>0.52100000000000002</v>
+        <v>0.85119999999999996</v>
       </c>
       <c r="E3">
-        <v>3.5000000000000003E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="F3">
-        <v>1E-3</v>
+        <v>1.6799999999999999E-2</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B4">
-        <v>0.63300000000000001</v>
+        <v>0.34849999999999998</v>
       </c>
       <c r="C4">
-        <v>0.75700000000000001</v>
+        <v>0.4289</v>
       </c>
       <c r="D4">
-        <v>0.51100000000000001</v>
+        <v>0.81859999999999999</v>
       </c>
       <c r="E4">
-        <v>6.0000000000000001E-3</v>
+        <v>9.4799999999999995E-2</v>
       </c>
       <c r="F4">
-        <v>4.0000000000000001E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>6.1899999999999997E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5">
-        <v>0.70199999999999996</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="C5">
-        <v>0.70499999999999996</v>
+        <v>0.70220000000000005</v>
       </c>
       <c r="D5">
-        <v>0.59299999999999997</v>
+        <v>0.83909999999999996</v>
       </c>
       <c r="E5">
-        <v>0.05</v>
+        <v>0.14779999999999999</v>
       </c>
       <c r="F5">
-        <v>2E-3</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="G5">
-        <v>4.0000000000000001E-3</v>
+        <v>1.9599999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6">
-        <v>0.126</v>
+        <v>0.59850000000000003</v>
       </c>
       <c r="C6">
-        <v>6.3E-2</v>
+        <v>0.71589999999999998</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.54290000000000005</v>
       </c>
       <c r="F6">
-        <v>1E-3</v>
+        <v>0.8548</v>
       </c>
       <c r="G6">
-        <v>0.315</v>
+        <v>9.7199999999999995E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7">
-        <v>8.2000000000000003E-2</v>
+        <v>6.9800000000000001E-2</v>
       </c>
       <c r="C7">
-        <v>0.114</v>
+        <v>6.9800000000000001E-2</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4353,71 +5147,71 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B8">
-        <v>0.623</v>
+        <v>0.27379999999999999</v>
       </c>
       <c r="C8">
-        <v>0.93300000000000005</v>
+        <v>0.31890000000000002</v>
       </c>
       <c r="D8">
-        <v>0.26800000000000002</v>
+        <v>0.70709999999999995</v>
       </c>
       <c r="E8">
-        <v>0.49199999999999999</v>
+        <v>9.9400000000000002E-2</v>
       </c>
       <c r="F8">
-        <v>0.96899999999999997</v>
+        <v>5.3199999999999997E-2</v>
       </c>
       <c r="G8">
-        <v>8.1000000000000003E-2</v>
+        <v>4.7800000000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B9">
-        <v>0.61</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="C9">
-        <v>0.82299999999999995</v>
+        <v>0.68720000000000003</v>
       </c>
       <c r="D9">
-        <v>3.5999999999999997E-2</v>
+        <v>0.1502</v>
       </c>
       <c r="E9">
-        <v>0.56100000000000005</v>
+        <v>0.54530000000000001</v>
       </c>
       <c r="F9">
-        <v>0.90500000000000003</v>
+        <v>0.36630000000000001</v>
       </c>
       <c r="G9">
-        <v>4.7E-2</v>
+        <v>0.40329999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B10">
-        <v>0.71499999999999997</v>
+        <v>0.629</v>
       </c>
       <c r="C10">
-        <v>0.67400000000000004</v>
+        <v>0.92359999999999998</v>
       </c>
       <c r="D10">
-        <v>0.27900000000000003</v>
+        <v>0.46350000000000002</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.61380000000000001</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.97109999999999996</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>9.8500000000000004E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -4425,22 +5219,22 @@
         <v>34</v>
       </c>
       <c r="B11">
-        <v>0.32700000000000001</v>
+        <v>0.57979999999999998</v>
       </c>
       <c r="C11">
-        <v>0.52900000000000003</v>
+        <v>0.84509999999999996</v>
       </c>
       <c r="D11">
-        <v>0.61199999999999999</v>
+        <v>0.9143</v>
       </c>
       <c r="E11">
-        <v>3.0000000000000001E-3</v>
+        <v>0.88149999999999995</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="G11">
-        <v>1E-3</v>
+        <v>4.58E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -4448,114 +5242,114 @@
         <v>35</v>
       </c>
       <c r="B12">
-        <v>0.621</v>
+        <v>0.42170000000000002</v>
       </c>
       <c r="C12">
-        <v>0.77200000000000002</v>
+        <v>0.66269999999999996</v>
       </c>
       <c r="D12">
-        <v>0.67500000000000004</v>
+        <v>0.78310000000000002</v>
       </c>
       <c r="E12">
-        <v>0.82499999999999996</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F12">
-        <v>0.98899999999999999</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>3.5999999999999997E-2</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B13">
-        <v>0.47599999999999998</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="C13">
-        <v>2E-3</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G13">
-        <v>0.65900000000000003</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14">
-        <v>0.65900000000000003</v>
+        <v>0.75</v>
       </c>
       <c r="C14">
-        <v>0.57799999999999996</v>
+        <v>0.73209999999999997</v>
       </c>
       <c r="D14">
-        <v>0.42099999999999999</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="E14">
-        <v>4.0000000000000001E-3</v>
+        <v>5.3600000000000002E-2</v>
       </c>
       <c r="F14">
-        <v>0.223</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B15">
-        <v>0.38900000000000001</v>
+        <v>0.65610000000000002</v>
       </c>
       <c r="C15">
-        <v>0.66500000000000004</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="D15">
-        <v>1.4E-2</v>
+        <v>0.89949999999999997</v>
       </c>
       <c r="E15">
-        <v>0.28100000000000003</v>
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="F15">
-        <v>0.375</v>
+        <v>1.06E-2</v>
       </c>
       <c r="G15">
-        <v>0.36899999999999999</v>
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B16">
-        <v>0.55800000000000005</v>
+        <v>0.63219999999999998</v>
       </c>
       <c r="C16">
-        <v>0.54300000000000004</v>
+        <v>0.71260000000000001</v>
       </c>
       <c r="D16">
-        <v>0.48699999999999999</v>
+        <v>0.91949999999999998</v>
       </c>
       <c r="E16">
-        <v>4.0000000000000001E-3</v>
+        <v>0.21840000000000001</v>
       </c>
       <c r="F16">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0.16400000000000001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4568,7 +5362,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4578,169 +5372,169 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>63</v>
-      </c>
-      <c r="G1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2">
-        <v>0.22500000000000001</v>
+        <v>0.42270000000000002</v>
       </c>
       <c r="C2">
-        <v>0.28799999999999998</v>
+        <v>7.4200000000000002E-2</v>
       </c>
       <c r="D2">
-        <v>0.27100000000000002</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.01</v>
+        <v>1.24E-2</v>
       </c>
       <c r="F2">
-        <v>2E-3</v>
+        <v>3.09E-2</v>
       </c>
       <c r="G2">
-        <v>2E-3</v>
+        <v>0.11550000000000001</v>
       </c>
       <c r="H2">
-        <v>0.53400000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3">
-        <v>0.625</v>
+        <v>0.7571</v>
       </c>
       <c r="C3">
-        <v>0.62</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D3">
-        <v>0.52100000000000002</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="E3">
-        <v>3.5000000000000003E-2</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F3">
-        <v>1E-3</v>
+        <v>4.7699999999999999E-2</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.14369999999999999</v>
       </c>
       <c r="H3">
-        <v>0.63900000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B4">
-        <v>0.63300000000000001</v>
+        <v>0.52370000000000005</v>
       </c>
       <c r="C4">
-        <v>0.75700000000000001</v>
+        <v>3.09E-2</v>
       </c>
       <c r="D4">
-        <v>0.51100000000000001</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>6.0000000000000001E-3</v>
+        <v>5.1499999999999997E-2</v>
       </c>
       <c r="F4">
-        <v>4.0000000000000001E-3</v>
+        <v>3.7100000000000001E-2</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.2268</v>
       </c>
       <c r="H4">
-        <v>0.251</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5">
-        <v>0.70199999999999996</v>
+        <v>0.64570000000000005</v>
       </c>
       <c r="C5">
-        <v>0.70499999999999996</v>
+        <v>6.3E-2</v>
       </c>
       <c r="D5">
-        <v>0.59299999999999997</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0.05</v>
       </c>
       <c r="F5">
-        <v>2E-3</v>
+        <v>6.5199999999999994E-2</v>
       </c>
       <c r="G5">
-        <v>4.0000000000000001E-3</v>
+        <v>7.6100000000000001E-2</v>
       </c>
       <c r="H5">
-        <v>0.51800000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6">
-        <v>0.126</v>
+        <v>0.98609999999999998</v>
       </c>
       <c r="C6">
-        <v>6.3E-2</v>
+        <v>0.73860000000000003</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>8.4599999999999995E-2</v>
       </c>
       <c r="F6">
-        <v>1E-3</v>
+        <v>6.5699999999999995E-2</v>
       </c>
       <c r="G6">
-        <v>0.315</v>
+        <v>0.18060000000000001</v>
       </c>
       <c r="H6">
-        <v>4.2000000000000003E-2</v>
+        <v>0.99870000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7">
-        <v>8.2000000000000003E-2</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="C7">
-        <v>0.114</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4749,91 +5543,91 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>4.7500000000000001E-2</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>5.5899999999999998E-2</v>
       </c>
       <c r="H7">
-        <v>0.115</v>
+        <v>0.99719999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B8">
-        <v>0.623</v>
+        <v>0.73540000000000005</v>
       </c>
       <c r="C8">
-        <v>0.93300000000000005</v>
+        <v>7.3400000000000007E-2</v>
       </c>
       <c r="D8">
-        <v>0.26800000000000002</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.49199999999999999</v>
+        <v>7.8E-2</v>
       </c>
       <c r="F8">
-        <v>0.96899999999999997</v>
+        <v>4.5499999999999999E-2</v>
       </c>
       <c r="G8">
-        <v>8.1000000000000003E-2</v>
+        <v>0.11890000000000001</v>
       </c>
       <c r="H8">
-        <v>0.999</v>
+        <v>0.99429999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B9">
-        <v>0.61</v>
+        <v>0.9486</v>
       </c>
       <c r="C9">
-        <v>0.82299999999999995</v>
+        <v>0.31890000000000002</v>
       </c>
       <c r="D9">
-        <v>3.5999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.56100000000000005</v>
+        <v>0.41770000000000002</v>
       </c>
       <c r="F9">
-        <v>0.90500000000000003</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="G9">
-        <v>4.7E-2</v>
+        <v>0.1132</v>
       </c>
       <c r="H9">
-        <v>0.999</v>
+        <v>0.99790000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B10">
-        <v>0.71499999999999997</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0.67400000000000004</v>
+        <v>0.94230000000000003</v>
       </c>
       <c r="D10">
-        <v>0.27900000000000003</v>
+        <v>7.5600000000000001E-2</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>7.8899999999999998E-2</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="H10">
-        <v>0.26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4841,25 +5635,25 @@
         <v>34</v>
       </c>
       <c r="B11">
-        <v>0.32700000000000001</v>
+        <v>0.99880000000000002</v>
       </c>
       <c r="C11">
-        <v>0.52900000000000003</v>
+        <v>0.91779999999999995</v>
       </c>
       <c r="D11">
-        <v>0.61199999999999999</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="E11">
-        <v>3.0000000000000001E-3</v>
+        <v>1.41E-2</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>6.4600000000000005E-2</v>
       </c>
       <c r="G11">
-        <v>1E-3</v>
+        <v>0.1643</v>
       </c>
       <c r="H11">
-        <v>0.32400000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4867,129 +5661,129 @@
         <v>35</v>
       </c>
       <c r="B12">
-        <v>0.621</v>
+        <v>0.21690000000000001</v>
       </c>
       <c r="C12">
-        <v>0.77200000000000002</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.67500000000000004</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E12">
-        <v>0.82499999999999996</v>
+        <v>2.41E-2</v>
       </c>
       <c r="F12">
-        <v>0.98899999999999999</v>
+        <v>2.41E-2</v>
       </c>
       <c r="G12">
-        <v>3.5999999999999997E-2</v>
+        <v>2.41E-2</v>
       </c>
       <c r="H12">
-        <v>0.998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B13">
-        <v>0.47599999999999998</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="C13">
-        <v>2E-3</v>
+        <v>3.85E-2</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F13">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.2802</v>
+      </c>
+      <c r="H13">
         <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.65900000000000003</v>
-      </c>
-      <c r="H13">
-        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14">
-        <v>0.65900000000000003</v>
+        <v>0.26790000000000003</v>
       </c>
       <c r="C14">
-        <v>0.57799999999999996</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0.42099999999999999</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.223</v>
+        <v>3.5700000000000003E-2</v>
       </c>
       <c r="G14">
+        <v>0.26790000000000003</v>
+      </c>
+      <c r="H14">
         <v>1</v>
-      </c>
-      <c r="H14">
-        <v>0.21299999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B15">
-        <v>0.38900000000000001</v>
+        <v>0.51849999999999996</v>
       </c>
       <c r="C15">
-        <v>0.66500000000000004</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="D15">
-        <v>1.4E-2</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.28100000000000003</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="F15">
-        <v>0.375</v>
+        <v>2.6499999999999999E-2</v>
       </c>
       <c r="G15">
-        <v>0.36899999999999999</v>
+        <v>0.1852</v>
       </c>
       <c r="H15">
-        <v>0.97799999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B16">
-        <v>0.55800000000000005</v>
+        <v>0.2989</v>
       </c>
       <c r="C16">
-        <v>0.54300000000000004</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.48699999999999999</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0.16400000000000001</v>
+        <v>0.22989999999999999</v>
       </c>
       <c r="H16">
-        <v>5.3999999999999999E-2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
